--- a/Excel/student_data_analysis.xlsx
+++ b/Excel/student_data_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KINNARI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinnari\Desktop\Data_Analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85F68C04-AE67-4C5F-A25B-46BE5FAB359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F746B12-6374-4072-9BD6-BFBD2E696963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,16 +724,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2003,6 +2002,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2040,6 +2042,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3861,6 +3866,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3905,6 +3919,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3949,6 +3972,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3993,6 +4025,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4037,6 +4078,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4081,6 +4131,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4125,6 +4184,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4169,6 +4237,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4213,6 +4290,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4257,6 +4343,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4301,6 +4396,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4345,6 +4449,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4389,6 +4502,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4433,6 +4555,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4477,6 +4608,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4521,6 +4661,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -11235,8 +11384,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="sex">
@@ -11259,7 +11408,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11313,8 +11462,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="activities">
@@ -11337,7 +11486,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11391,8 +11540,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>46015</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="reason">
@@ -11415,7 +11564,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11460,7 +11609,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="KINNARI" refreshedDate="45183.826840277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="395">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KINNARI" refreshedDate="45183.826840277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="395" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AG396" sheet="student_data"/>
   </cacheSource>
@@ -25454,234 +25603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A57:C60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="33">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="9">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of health" fld="28" baseField="0" baseItem="0"/>
-    <dataField name="Sum of age" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="N30:P37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField showAll="0"/>
@@ -25849,8 +25771,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E18:K22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField axis="axisRow" showAll="0">
@@ -26291,8 +26213,235 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A57:C60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="33">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of health" fld="28" baseField="0" baseItem="0"/>
+    <dataField name="Sum of age" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_sex" sourceName="sex">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_sex" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="sex">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable2"/>
     <pivotTable tabId="2" name="PivotTable3"/>
@@ -26310,7 +26459,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_activities" sourceName="activities">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_activities" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="activities">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable3"/>
     <pivotTable tabId="2" name="PivotTable2"/>
@@ -26328,7 +26477,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_reason" sourceName="reason">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_reason" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="reason">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable4"/>
     <pivotTable tabId="2" name="PivotTable2"/>
@@ -26348,10 +26497,10 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="sex" cache="Slicer_sex" caption="sex" rowHeight="241300"/>
-  <slicer name="activities" cache="Slicer_activities" caption="activities" rowHeight="241300"/>
-  <slicer name="reason" cache="Slicer_reason" caption="reason" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="sex" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_sex" caption="sex" rowHeight="241300"/>
+  <slicer name="activities" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_activities" caption="activities" rowHeight="241300"/>
+  <slicer name="reason" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_reason" caption="reason" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -26651,7 +26800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -66660,7 +66809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A18:P60"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
@@ -66717,22 +66866,22 @@
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>2.1428571428571428</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>2.3333333333333335</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <v>2.7777777777777777</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <v>2.6666666666666665</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="5">
         <v>2.6666666666666665</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -66740,16 +66889,16 @@
       <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
         <v>1.5</v>
       </c>
     </row>
@@ -66757,22 +66906,22 @@
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>2.1428571428571428</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>2.3333333333333335</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>2.7</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="5">
         <v>2.4285714285714284</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="5">
         <v>2.6666666666666665</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="5">
         <v>2.4444444444444446</v>
       </c>
     </row>
@@ -66799,10 +66948,10 @@
       <c r="N32" s="2">
         <v>15</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="5">
         <v>7</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="5">
         <v>7</v>
       </c>
     </row>
@@ -66810,10 +66959,10 @@
       <c r="N33" s="2">
         <v>16</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="5">
         <v>9</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="5">
         <v>9</v>
       </c>
     </row>
@@ -66821,10 +66970,10 @@
       <c r="N34" s="2">
         <v>17</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="5">
         <v>10</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="5">
         <v>10</v>
       </c>
     </row>
@@ -66832,10 +66981,10 @@
       <c r="N35" s="2">
         <v>18</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="5">
         <v>7</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="5">
         <v>7</v>
       </c>
     </row>
@@ -66843,10 +66992,10 @@
       <c r="N36" s="2">
         <v>19</v>
       </c>
-      <c r="O36" s="3">
-        <v>3</v>
-      </c>
-      <c r="P36" s="3">
+      <c r="O36" s="5">
+        <v>3</v>
+      </c>
+      <c r="P36" s="5">
         <v>3</v>
       </c>
     </row>
@@ -66854,10 +67003,10 @@
       <c r="N37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="5">
         <v>36</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="5">
         <v>36</v>
       </c>
     </row>
@@ -66876,10 +67025,10 @@
       <c r="A58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="5">
         <v>106</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <v>567</v>
       </c>
     </row>
@@ -66887,10 +67036,10 @@
       <c r="A59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="5">
         <v>6</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <v>35</v>
       </c>
     </row>
@@ -66898,10 +67047,10 @@
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="5">
         <v>112</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>602</v>
       </c>
     </row>
@@ -66912,61 +67061,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
